--- a/deployment/Omaha_Cal_Info_GP03FLMA_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_GP03FLMA_00003.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GP03FLMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="8820" windowWidth="25008" windowHeight="12612" activeTab="1"/>
+    <workbookView xWindow="12000" yWindow="8820" windowWidth="25005" windowHeight="12615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="112">
   <si>
     <t>Ref Des</t>
   </si>
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t>A00685</t>
+  </si>
+  <si>
+    <t>OL000087</t>
+  </si>
+  <si>
+    <t>OL000088</t>
   </si>
 </sst>
 </file>
@@ -1700,26 +1706,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>79</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1799,12 +1805,12 @@
         <v>-144.24616666666665</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="29"/>
       <c r="F3" s="30"/>
       <c r="G3" s="29"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
     </row>
@@ -1824,29 +1830,29 @@
   <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E88" sqref="E88"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="9" customWidth="1"/>
-    <col min="10" max="13" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="9" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +1887,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="24"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1898,7 +1904,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>58</v>
       </c>
@@ -1935,7 +1941,7 @@
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
     </row>
-    <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>58</v>
       </c>
@@ -1970,7 +1976,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>58</v>
       </c>
@@ -2003,7 +2009,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>58</v>
       </c>
@@ -2036,7 +2042,7 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>58</v>
       </c>
@@ -2069,7 +2075,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>58</v>
       </c>
@@ -2102,7 +2108,7 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>58</v>
       </c>
@@ -2137,7 +2143,7 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>58</v>
       </c>
@@ -2172,7 +2178,7 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>58</v>
       </c>
@@ -2207,7 +2213,7 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>58</v>
       </c>
@@ -2242,7 +2248,7 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13"/>
       <c r="C13" s="31"/>
@@ -2258,7 +2264,7 @@
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
     </row>
-    <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>72</v>
       </c>
@@ -2295,7 +2301,7 @@
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
     </row>
-    <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>59</v>
       </c>
@@ -2328,7 +2334,7 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
     </row>
-    <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>59</v>
       </c>
@@ -2361,7 +2367,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
     </row>
-    <row r="17" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>59</v>
       </c>
@@ -2394,7 +2400,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
     </row>
-    <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>59</v>
       </c>
@@ -2427,7 +2433,7 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
     </row>
-    <row r="19" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>59</v>
       </c>
@@ -2460,7 +2466,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
     </row>
-    <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>59</v>
       </c>
@@ -2495,7 +2501,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21"/>
       <c r="C21" s="31"/>
@@ -2511,7 +2517,7 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>39</v>
       </c>
@@ -2548,7 +2554,7 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>39</v>
       </c>
@@ -2583,7 +2589,7 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>39</v>
       </c>
@@ -2616,7 +2622,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25"/>
       <c r="C25" s="31"/>
@@ -2632,7 +2638,7 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>55</v>
       </c>
@@ -2669,7 +2675,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
-    <row r="27" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>55</v>
       </c>
@@ -2702,7 +2708,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>55</v>
       </c>
@@ -2735,7 +2741,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>55</v>
       </c>
@@ -2768,7 +2774,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>55</v>
       </c>
@@ -2803,7 +2809,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>55</v>
       </c>
@@ -2836,7 +2842,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>55</v>
       </c>
@@ -2869,7 +2875,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>55</v>
       </c>
@@ -2902,7 +2908,7 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>55</v>
       </c>
@@ -2935,7 +2941,7 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35"/>
       <c r="C35" s="31"/>
@@ -2951,7 +2957,7 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>60</v>
       </c>
@@ -2988,7 +2994,7 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>60</v>
       </c>
@@ -3021,7 +3027,7 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>60</v>
       </c>
@@ -3054,7 +3060,7 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>60</v>
       </c>
@@ -3087,7 +3093,7 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
     </row>
-    <row r="40" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40"/>
       <c r="C40" s="31"/>
@@ -3103,7 +3109,7 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
     </row>
-    <row r="41" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>61</v>
       </c>
@@ -3140,7 +3146,7 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
     </row>
-    <row r="42" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>61</v>
       </c>
@@ -3173,7 +3179,7 @@
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>61</v>
       </c>
@@ -3206,7 +3212,7 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>61</v>
       </c>
@@ -3239,7 +3245,7 @@
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45"/>
       <c r="C45" s="31"/>
@@ -3255,7 +3261,7 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>62</v>
       </c>
@@ -3292,7 +3298,7 @@
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
     </row>
-    <row r="47" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>62</v>
       </c>
@@ -3325,7 +3331,7 @@
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
     </row>
-    <row r="48" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>62</v>
       </c>
@@ -3358,7 +3364,7 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>62</v>
       </c>
@@ -3391,7 +3397,7 @@
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
     </row>
-    <row r="50" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50"/>
       <c r="C50" s="31"/>
@@ -3407,7 +3413,7 @@
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>63</v>
       </c>
@@ -3444,7 +3450,7 @@
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
     </row>
-    <row r="52" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>63</v>
       </c>
@@ -3477,7 +3483,7 @@
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
     </row>
-    <row r="53" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>63</v>
       </c>
@@ -3510,7 +3516,7 @@
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
     </row>
-    <row r="54" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>63</v>
       </c>
@@ -3543,7 +3549,7 @@
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
     </row>
-    <row r="55" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55"/>
       <c r="C55" s="31"/>
@@ -3559,7 +3565,7 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
     </row>
-    <row r="56" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>64</v>
       </c>
@@ -3596,7 +3602,7 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
     </row>
-    <row r="57" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>64</v>
       </c>
@@ -3629,7 +3635,7 @@
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
     </row>
-    <row r="58" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>64</v>
       </c>
@@ -3662,7 +3668,7 @@
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
     </row>
-    <row r="59" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>64</v>
       </c>
@@ -3695,7 +3701,7 @@
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
     </row>
-    <row r="60" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60"/>
       <c r="C60" s="31"/>
@@ -3714,7 +3720,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>65</v>
       </c>
@@ -3754,7 +3760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>65</v>
       </c>
@@ -3790,7 +3796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>65</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>65</v>
       </c>
@@ -3859,7 +3865,7 @@
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
     </row>
-    <row r="65" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="27"/>
       <c r="B65"/>
       <c r="C65" s="31"/>
@@ -3875,7 +3881,7 @@
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
     </row>
-    <row r="66" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
         <v>66</v>
       </c>
@@ -3912,7 +3918,7 @@
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
     </row>
-    <row r="67" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
         <v>66</v>
       </c>
@@ -3945,7 +3951,7 @@
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
     </row>
-    <row r="68" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>66</v>
       </c>
@@ -3978,7 +3984,7 @@
       <c r="N68" s="25"/>
       <c r="O68" s="25"/>
     </row>
-    <row r="69" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
         <v>66</v>
       </c>
@@ -4011,7 +4017,7 @@
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
     </row>
-    <row r="70" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
       <c r="B70"/>
       <c r="C70" s="31"/>
@@ -4027,7 +4033,7 @@
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
     </row>
-    <row r="71" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
         <v>67</v>
       </c>
@@ -4064,7 +4070,7 @@
       <c r="N71" s="25"/>
       <c r="O71" s="25"/>
     </row>
-    <row r="72" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>67</v>
       </c>
@@ -4097,7 +4103,7 @@
       <c r="N72" s="25"/>
       <c r="O72" s="25"/>
     </row>
-    <row r="73" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>67</v>
       </c>
@@ -4130,7 +4136,7 @@
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
     </row>
-    <row r="74" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>67</v>
       </c>
@@ -4163,7 +4169,7 @@
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
     </row>
-    <row r="75" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="27"/>
       <c r="B75"/>
       <c r="C75" s="31"/>
@@ -4179,7 +4185,7 @@
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
     </row>
-    <row r="76" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>68</v>
       </c>
@@ -4216,7 +4222,7 @@
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
     </row>
-    <row r="77" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>68</v>
       </c>
@@ -4249,7 +4255,7 @@
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
     </row>
-    <row r="78" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>68</v>
       </c>
@@ -4282,7 +4288,7 @@
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
     </row>
-    <row r="79" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
         <v>68</v>
       </c>
@@ -4315,7 +4321,7 @@
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
     </row>
-    <row r="80" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="27"/>
       <c r="B80"/>
       <c r="C80" s="31"/>
@@ -4331,7 +4337,7 @@
       <c r="N80" s="25"/>
       <c r="O80" s="25"/>
     </row>
-    <row r="81" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>69</v>
       </c>
@@ -4368,7 +4374,7 @@
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
     </row>
-    <row r="82" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>69</v>
       </c>
@@ -4401,7 +4407,7 @@
       <c r="N82" s="25"/>
       <c r="O82" s="25"/>
     </row>
-    <row r="83" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>69</v>
       </c>
@@ -4434,7 +4440,7 @@
       <c r="N83" s="25"/>
       <c r="O83" s="25"/>
     </row>
-    <row r="84" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
         <v>69</v>
       </c>
@@ -4467,7 +4473,7 @@
       <c r="N84" s="25"/>
       <c r="O84" s="25"/>
     </row>
-    <row r="85" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="27"/>
       <c r="B85"/>
       <c r="C85" s="31"/>
@@ -4483,7 +4489,7 @@
       <c r="N85" s="25"/>
       <c r="O85" s="25"/>
     </row>
-    <row r="86" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>70</v>
       </c>
@@ -4520,7 +4526,7 @@
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
     </row>
-    <row r="87" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
         <v>70</v>
       </c>
@@ -4553,7 +4559,7 @@
       <c r="N87" s="25"/>
       <c r="O87" s="25"/>
     </row>
-    <row r="88" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>70</v>
       </c>
@@ -4586,7 +4592,7 @@
       <c r="N88" s="25"/>
       <c r="O88" s="25"/>
     </row>
-    <row r="89" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>70</v>
       </c>
@@ -4619,7 +4625,7 @@
       <c r="N89" s="25"/>
       <c r="O89" s="25"/>
     </row>
-    <row r="90" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="27"/>
       <c r="B90"/>
       <c r="C90" s="31"/>
@@ -4635,7 +4641,7 @@
       <c r="N90" s="25"/>
       <c r="O90" s="25"/>
     </row>
-    <row r="91" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>71</v>
       </c>
@@ -4672,7 +4678,7 @@
       <c r="N91" s="25"/>
       <c r="O91" s="25"/>
     </row>
-    <row r="92" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
         <v>71</v>
       </c>
@@ -4705,7 +4711,7 @@
       <c r="N92" s="25"/>
       <c r="O92" s="25"/>
     </row>
-    <row r="93" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
         <v>71</v>
       </c>
@@ -4738,7 +4744,7 @@
       <c r="N93" s="25"/>
       <c r="O93" s="25"/>
     </row>
-    <row r="94" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
         <v>71</v>
       </c>
@@ -4771,7 +4777,7 @@
       <c r="N94" s="25"/>
       <c r="O94" s="25"/>
     </row>
-    <row r="95" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="27"/>
       <c r="B95"/>
       <c r="C95" s="31"/>
@@ -4787,7 +4793,7 @@
       <c r="N95" s="25"/>
       <c r="O95" s="25"/>
     </row>
-    <row r="96" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>56</v>
       </c>
@@ -4800,9 +4806,11 @@
       <c r="D96" s="9">
         <v>3</v>
       </c>
-      <c r="E96"/>
+      <c r="E96" t="s">
+        <v>111</v>
+      </c>
       <c r="F96" s="32">
-        <v>12635</v>
+        <v>12365</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="33"/>
@@ -4814,7 +4822,7 @@
       <c r="N96" s="25"/>
       <c r="O96" s="25"/>
     </row>
-    <row r="97" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="27"/>
       <c r="B97"/>
       <c r="C97" s="31"/>
@@ -4830,7 +4838,7 @@
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
     </row>
-    <row r="98" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
         <v>57</v>
       </c>
@@ -4843,7 +4851,9 @@
       <c r="D98" s="9">
         <v>3</v>
       </c>
-      <c r="E98"/>
+      <c r="E98" t="s">
+        <v>110</v>
+      </c>
       <c r="F98" s="32">
         <v>12368</v>
       </c>
@@ -4857,10 +4867,10 @@
       <c r="N98" s="25"/>
       <c r="O98" s="25"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -4876,7 +4886,7 @@
       <c r="N100" s="25"/>
       <c r="O100" s="25"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
@@ -4893,7 +4903,7 @@
       <c r="N101" s="25"/>
       <c r="O101" s="25"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
@@ -4910,7 +4920,7 @@
       <c r="N102" s="25"/>
       <c r="O102" s="25"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>

--- a/deployment/Omaha_Cal_Info_GP03FLMA_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_GP03FLMA_00003.xlsx
@@ -233,12 +233,6 @@
     </r>
   </si>
   <si>
-    <t>GP03FLMA-FMM01-01-SIOENG000</t>
-  </si>
-  <si>
-    <t>GP03FLMA-FMS01-01-SIOENG000</t>
-  </si>
-  <si>
     <t>GP03FLMA-RIS01-05-FLORTD000</t>
   </si>
   <si>
@@ -420,6 +414,12 @@
   </si>
   <si>
     <t>OL000088</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIS01-00-SIOENG000</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-00-SIOENG000</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1727,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>49</v>
@@ -1784,10 +1784,10 @@
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J2" s="3">
         <v>4127</v>
@@ -1830,10 +1830,10 @@
   <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
@@ -1866,7 +1866,7 @@
         <v>43</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>2</v>
@@ -1906,19 +1906,19 @@
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="9">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
       </c>
       <c r="F3" s="32">
         <v>1216</v>
@@ -1943,19 +1943,19 @@
     </row>
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
       </c>
       <c r="F4" s="32">
         <v>1216</v>
@@ -1978,19 +1978,19 @@
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="9">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
       </c>
       <c r="F5" s="32">
         <v>1216</v>
@@ -2011,19 +2011,19 @@
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>80</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="9">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
       </c>
       <c r="F6" s="32">
         <v>1216</v>
@@ -2044,19 +2044,19 @@
     </row>
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="9">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
       </c>
       <c r="F7" s="32">
         <v>1216</v>
@@ -2077,19 +2077,19 @@
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="9">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="9">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>82</v>
       </c>
       <c r="F8" s="32">
         <v>1216</v>
@@ -2110,19 +2110,19 @@
     </row>
     <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
       </c>
       <c r="F9" s="32">
         <v>1216</v>
@@ -2145,19 +2145,19 @@
     </row>
     <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
         <v>80</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="9">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
       </c>
       <c r="F10" s="32">
         <v>1216</v>
@@ -2180,19 +2180,19 @@
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
         <v>80</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="9">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>82</v>
       </c>
       <c r="F11" s="32">
         <v>1216</v>
@@ -2215,19 +2215,19 @@
     </row>
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="9">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>80</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="9">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
       </c>
       <c r="F12" s="32">
         <v>1216</v>
@@ -2266,10 +2266,10 @@
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>50</v>
@@ -2278,7 +2278,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>53</v>
@@ -2303,10 +2303,10 @@
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>50</v>
@@ -2315,7 +2315,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>53</v>
@@ -2336,10 +2336,10 @@
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>50</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>53</v>
@@ -2369,10 +2369,10 @@
     </row>
     <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>50</v>
@@ -2381,7 +2381,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>53</v>
@@ -2402,10 +2402,10 @@
     </row>
     <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>50</v>
@@ -2414,7 +2414,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>53</v>
@@ -2435,10 +2435,10 @@
     </row>
     <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>50</v>
@@ -2447,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>53</v>
@@ -2468,10 +2468,10 @@
     </row>
     <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>50</v>
@@ -2480,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>53</v>
@@ -2522,7 +2522,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>50</v>
@@ -2531,7 +2531,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F22" s="32">
         <v>394</v>
@@ -2559,7 +2559,7 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>50</v>
@@ -2568,7 +2568,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F23" s="32">
         <v>394</v>
@@ -2594,7 +2594,7 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>50</v>
@@ -2603,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F24" s="32">
         <v>394</v>
@@ -2643,7 +2643,7 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>50</v>
@@ -2652,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" s="32">
         <v>21393</v>
@@ -2680,7 +2680,7 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>50</v>
@@ -2689,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F27" s="32">
         <v>21393</v>
@@ -2713,7 +2713,7 @@
         <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>50</v>
@@ -2722,7 +2722,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F28" s="32">
         <v>21393</v>
@@ -2746,7 +2746,7 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>50</v>
@@ -2755,7 +2755,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29" s="32">
         <v>21393</v>
@@ -2779,7 +2779,7 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>50</v>
@@ -2788,7 +2788,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F30" s="32">
         <v>21393</v>
@@ -2814,7 +2814,7 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>50</v>
@@ -2823,7 +2823,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F31" s="32">
         <v>21393</v>
@@ -2847,7 +2847,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>50</v>
@@ -2856,7 +2856,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F32" s="32">
         <v>21393</v>
@@ -2880,7 +2880,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>50</v>
@@ -2889,7 +2889,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F33" s="32">
         <v>21393</v>
@@ -2913,7 +2913,7 @@
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>50</v>
@@ -2922,7 +2922,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F34" s="32">
         <v>21393</v>
@@ -2959,10 +2959,10 @@
     </row>
     <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>50</v>
@@ -2971,10 +2971,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>5</v>
@@ -2996,10 +2996,10 @@
     </row>
     <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>50</v>
@@ -3008,10 +3008,10 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>6</v>
@@ -3029,10 +3029,10 @@
     </row>
     <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>50</v>
@@ -3041,10 +3041,10 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>7</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>50</v>
@@ -3074,10 +3074,10 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>29</v>
@@ -3111,10 +3111,10 @@
     </row>
     <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>50</v>
@@ -3123,10 +3123,10 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>5</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>50</v>
@@ -3160,10 +3160,10 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>6</v>
@@ -3181,10 +3181,10 @@
     </row>
     <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>50</v>
@@ -3193,10 +3193,10 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>7</v>
@@ -3214,10 +3214,10 @@
     </row>
     <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>50</v>
@@ -3226,10 +3226,10 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>29</v>
@@ -3263,10 +3263,10 @@
     </row>
     <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>50</v>
@@ -3275,10 +3275,10 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>5</v>
@@ -3300,10 +3300,10 @@
     </row>
     <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C47" s="31" t="s">
         <v>50</v>
@@ -3312,10 +3312,10 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>6</v>
@@ -3333,10 +3333,10 @@
     </row>
     <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" s="31" t="s">
         <v>50</v>
@@ -3345,10 +3345,10 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>7</v>
@@ -3366,10 +3366,10 @@
     </row>
     <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>50</v>
@@ -3378,10 +3378,10 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>29</v>
@@ -3415,10 +3415,10 @@
     </row>
     <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>50</v>
@@ -3427,10 +3427,10 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>5</v>
@@ -3452,10 +3452,10 @@
     </row>
     <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C52" s="31" t="s">
         <v>50</v>
@@ -3464,10 +3464,10 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>6</v>
@@ -3485,10 +3485,10 @@
     </row>
     <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" s="31" t="s">
         <v>50</v>
@@ -3497,10 +3497,10 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>7</v>
@@ -3518,10 +3518,10 @@
     </row>
     <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>50</v>
@@ -3530,10 +3530,10 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>29</v>
@@ -3567,10 +3567,10 @@
     </row>
     <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C56" s="31" t="s">
         <v>50</v>
@@ -3579,10 +3579,10 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>5</v>
@@ -3604,10 +3604,10 @@
     </row>
     <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>50</v>
@@ -3616,10 +3616,10 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>6</v>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C58" s="31" t="s">
         <v>50</v>
@@ -3649,10 +3649,10 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>7</v>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>50</v>
@@ -3682,10 +3682,10 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>29</v>
@@ -3717,15 +3717,15 @@
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
       <c r="R60" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="31" t="s">
         <v>50</v>
@@ -3734,10 +3734,10 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>5</v>
@@ -3757,15 +3757,15 @@
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
       <c r="R61" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>50</v>
@@ -3774,10 +3774,10 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>6</v>
@@ -3793,15 +3793,15 @@
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
       <c r="R62" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>50</v>
@@ -3810,10 +3810,10 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>7</v>
@@ -3829,15 +3829,15 @@
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
       <c r="R63" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="31" t="s">
         <v>50</v>
@@ -3846,10 +3846,10 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>29</v>
@@ -3883,10 +3883,10 @@
     </row>
     <row r="66" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="31" t="s">
         <v>50</v>
@@ -3895,10 +3895,10 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>5</v>
@@ -3920,10 +3920,10 @@
     </row>
     <row r="67" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="31" t="s">
         <v>50</v>
@@ -3932,10 +3932,10 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>6</v>
@@ -3953,10 +3953,10 @@
     </row>
     <row r="68" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C68" s="31" t="s">
         <v>50</v>
@@ -3965,10 +3965,10 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>7</v>
@@ -3986,10 +3986,10 @@
     </row>
     <row r="69" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>50</v>
@@ -3998,10 +3998,10 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>29</v>
@@ -4035,10 +4035,10 @@
     </row>
     <row r="71" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C71" s="31" t="s">
         <v>50</v>
@@ -4047,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F71" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>5</v>
@@ -4072,10 +4072,10 @@
     </row>
     <row r="72" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C72" s="31" t="s">
         <v>50</v>
@@ -4084,10 +4084,10 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>6</v>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="73" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C73" s="31" t="s">
         <v>50</v>
@@ -4117,10 +4117,10 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>7</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="74" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C74" s="31" t="s">
         <v>50</v>
@@ -4150,10 +4150,10 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>29</v>
@@ -4187,10 +4187,10 @@
     </row>
     <row r="76" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C76" s="31" t="s">
         <v>50</v>
@@ -4199,10 +4199,10 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F76" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>5</v>
@@ -4224,10 +4224,10 @@
     </row>
     <row r="77" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C77" s="31" t="s">
         <v>50</v>
@@ -4236,10 +4236,10 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F77" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>6</v>
@@ -4257,10 +4257,10 @@
     </row>
     <row r="78" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C78" s="31" t="s">
         <v>50</v>
@@ -4269,10 +4269,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>7</v>
@@ -4290,10 +4290,10 @@
     </row>
     <row r="79" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C79" s="31" t="s">
         <v>50</v>
@@ -4302,10 +4302,10 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>29</v>
@@ -4339,10 +4339,10 @@
     </row>
     <row r="81" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C81" s="31" t="s">
         <v>50</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F81" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>5</v>
@@ -4376,10 +4376,10 @@
     </row>
     <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C82" s="31" t="s">
         <v>50</v>
@@ -4388,10 +4388,10 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>6</v>
@@ -4409,10 +4409,10 @@
     </row>
     <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" s="31" t="s">
         <v>50</v>
@@ -4421,10 +4421,10 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F83" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>7</v>
@@ -4442,10 +4442,10 @@
     </row>
     <row r="84" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C84" s="31" t="s">
         <v>50</v>
@@ -4454,10 +4454,10 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F84" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>29</v>
@@ -4491,10 +4491,10 @@
     </row>
     <row r="86" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C86" s="31" t="s">
         <v>50</v>
@@ -4503,10 +4503,10 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F86" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>5</v>
@@ -4528,10 +4528,10 @@
     </row>
     <row r="87" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C87" s="31" t="s">
         <v>50</v>
@@ -4540,10 +4540,10 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F87" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>6</v>
@@ -4561,10 +4561,10 @@
     </row>
     <row r="88" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C88" s="31" t="s">
         <v>50</v>
@@ -4573,10 +4573,10 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F88" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>7</v>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="89" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C89" s="31" t="s">
         <v>50</v>
@@ -4606,10 +4606,10 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F89" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>29</v>
@@ -4643,10 +4643,10 @@
     </row>
     <row r="91" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C91" s="31" t="s">
         <v>50</v>
@@ -4655,10 +4655,10 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F91" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>5</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="92" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C92" s="31" t="s">
         <v>50</v>
@@ -4692,10 +4692,10 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F92" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>6</v>
@@ -4713,10 +4713,10 @@
     </row>
     <row r="93" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B93" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C93" s="31" t="s">
         <v>50</v>
@@ -4725,10 +4725,10 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F93" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>7</v>
@@ -4746,10 +4746,10 @@
     </row>
     <row r="94" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C94" s="31" t="s">
         <v>50</v>
@@ -4758,10 +4758,10 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F94" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>29</v>
@@ -4795,10 +4795,10 @@
     </row>
     <row r="96" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C96" s="31" t="s">
         <v>50</v>
@@ -4807,7 +4807,7 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F96" s="32">
         <v>12365</v>
@@ -4840,10 +4840,10 @@
     </row>
     <row r="98" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C98" s="31" t="s">
         <v>50</v>
@@ -4852,7 +4852,7 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F98" s="32">
         <v>12368</v>

--- a/deployment/Omaha_Cal_Info_GP03FLMA_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_GP03FLMA_00003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="8820" windowWidth="25005" windowHeight="12615" activeTab="1"/>
+    <workbookView xWindow="42240" yWindow="4860" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +17,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -713,7 +708,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="277">
+  <cellStyleXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -991,6 +986,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1104,7 +1101,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="277">
+  <cellStyles count="279">
     <cellStyle name="Comma 2" xfId="62"/>
     <cellStyle name="Comma 2 2" xfId="63"/>
     <cellStyle name="Comma 2 2 2" xfId="64"/>
@@ -1188,6 +1185,7 @@
     <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
@@ -1261,6 +1259,7 @@
     <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 2" xfId="8"/>
     <cellStyle name="Hyperlink 2 2" xfId="71"/>
     <cellStyle name="Hyperlink 2 3" xfId="72"/>
@@ -1397,7 +1396,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1456,7 +1455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1491,7 +1490,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1702,30 +1701,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="28">
       <c r="A1" s="36" t="s">
         <v>77</v>
       </c>
@@ -1763,7 +1762,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="16" customFormat="1">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1782,7 +1781,9 @@
       <c r="F2" s="19">
         <v>0.94444444444444453</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="14">
+        <v>42549</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>75</v>
       </c>
@@ -1805,12 +1806,12 @@
         <v>-144.24616666666665</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="16" customFormat="1">
       <c r="E3" s="29"/>
       <c r="F3" s="30"/>
       <c r="G3" s="29"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
     </row>
@@ -1829,30 +1830,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="9" customWidth="1"/>
-    <col min="10" max="13" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="9" customWidth="1"/>
+    <col min="10" max="13" width="10.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="12" customFormat="1" ht="28">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +1888,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="24"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1904,7 +1905,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="27" t="s">
         <v>56</v>
       </c>
@@ -1941,7 +1942,7 @@
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="27" t="s">
         <v>56</v>
       </c>
@@ -1976,7 +1977,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="27" t="s">
         <v>56</v>
       </c>
@@ -2009,7 +2010,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="27" t="s">
         <v>56</v>
       </c>
@@ -2042,7 +2043,7 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="27" t="s">
         <v>56</v>
       </c>
@@ -2075,7 +2076,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="27" t="s">
         <v>56</v>
       </c>
@@ -2108,7 +2109,7 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="27" t="s">
         <v>56</v>
       </c>
@@ -2143,7 +2144,7 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="27" t="s">
         <v>56</v>
       </c>
@@ -2178,7 +2179,7 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="27" t="s">
         <v>56</v>
       </c>
@@ -2213,7 +2214,7 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="27" t="s">
         <v>56</v>
       </c>
@@ -2248,7 +2249,7 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="27"/>
       <c r="B13"/>
       <c r="C13" s="31"/>
@@ -2264,7 +2265,7 @@
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="27" t="s">
         <v>70</v>
       </c>
@@ -2301,7 +2302,7 @@
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="27" t="s">
         <v>57</v>
       </c>
@@ -2334,7 +2335,7 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="27" t="s">
         <v>57</v>
       </c>
@@ -2367,7 +2368,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="27" t="s">
         <v>57</v>
       </c>
@@ -2400,7 +2401,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="27" t="s">
         <v>57</v>
       </c>
@@ -2433,7 +2434,7 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="27" t="s">
         <v>57</v>
       </c>
@@ -2466,7 +2467,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
     </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="27" t="s">
         <v>57</v>
       </c>
@@ -2501,7 +2502,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="27"/>
       <c r="B21"/>
       <c r="C21" s="31"/>
@@ -2517,7 +2518,7 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="27" t="s">
         <v>39</v>
       </c>
@@ -2554,7 +2555,7 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="27" t="s">
         <v>39</v>
       </c>
@@ -2589,7 +2590,7 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="42">
       <c r="A24" s="27" t="s">
         <v>39</v>
       </c>
@@ -2622,7 +2623,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="27"/>
       <c r="B25"/>
       <c r="C25" s="31"/>
@@ -2638,7 +2639,7 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="27" t="s">
         <v>55</v>
       </c>
@@ -2675,7 +2676,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
-    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="27" t="s">
         <v>55</v>
       </c>
@@ -2708,7 +2709,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="27" t="s">
         <v>55</v>
       </c>
@@ -2741,7 +2742,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="27" t="s">
         <v>55</v>
       </c>
@@ -2774,7 +2775,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="27" t="s">
         <v>55</v>
       </c>
@@ -2809,7 +2810,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="27" t="s">
         <v>55</v>
       </c>
@@ -2842,7 +2843,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="27" t="s">
         <v>55</v>
       </c>
@@ -2875,7 +2876,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="27" t="s">
         <v>55</v>
       </c>
@@ -2908,7 +2909,7 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="27" t="s">
         <v>55</v>
       </c>
@@ -2941,7 +2942,7 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="27"/>
       <c r="B35"/>
       <c r="C35" s="31"/>
@@ -2957,7 +2958,7 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="27" t="s">
         <v>58</v>
       </c>
@@ -2994,7 +2995,7 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="27" t="s">
         <v>58</v>
       </c>
@@ -3027,7 +3028,7 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="27" t="s">
         <v>58</v>
       </c>
@@ -3060,7 +3061,7 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="27" t="s">
         <v>58</v>
       </c>
@@ -3093,7 +3094,7 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
     </row>
-    <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="27"/>
       <c r="B40"/>
       <c r="C40" s="31"/>
@@ -3109,7 +3110,7 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
     </row>
-    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="27" t="s">
         <v>59</v>
       </c>
@@ -3146,7 +3147,7 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
     </row>
-    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="27" t="s">
         <v>59</v>
       </c>
@@ -3179,7 +3180,7 @@
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="27" t="s">
         <v>59</v>
       </c>
@@ -3212,7 +3213,7 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="27" t="s">
         <v>59</v>
       </c>
@@ -3245,7 +3246,7 @@
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="27"/>
       <c r="B45"/>
       <c r="C45" s="31"/>
@@ -3261,7 +3262,7 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="27" t="s">
         <v>60</v>
       </c>
@@ -3298,7 +3299,7 @@
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
     </row>
-    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="27" t="s">
         <v>60</v>
       </c>
@@ -3331,7 +3332,7 @@
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
     </row>
-    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="27" t="s">
         <v>60</v>
       </c>
@@ -3364,7 +3365,7 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="27" t="s">
         <v>60</v>
       </c>
@@ -3397,7 +3398,7 @@
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
     </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="27"/>
       <c r="B50"/>
       <c r="C50" s="31"/>
@@ -3413,7 +3414,7 @@
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="27" t="s">
         <v>61</v>
       </c>
@@ -3450,7 +3451,7 @@
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
     </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="27" t="s">
         <v>61</v>
       </c>
@@ -3483,7 +3484,7 @@
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
     </row>
-    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="27" t="s">
         <v>61</v>
       </c>
@@ -3516,7 +3517,7 @@
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
     </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="27" t="s">
         <v>61</v>
       </c>
@@ -3549,7 +3550,7 @@
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
     </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" s="27"/>
       <c r="B55"/>
       <c r="C55" s="31"/>
@@ -3565,7 +3566,7 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
     </row>
-    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="27" t="s">
         <v>62</v>
       </c>
@@ -3602,7 +3603,7 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
     </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="27" t="s">
         <v>62</v>
       </c>
@@ -3635,7 +3636,7 @@
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
     </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="27" t="s">
         <v>62</v>
       </c>
@@ -3668,7 +3669,7 @@
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
     </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="27" t="s">
         <v>62</v>
       </c>
@@ -3701,7 +3702,7 @@
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
     </row>
-    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" s="27"/>
       <c r="B60"/>
       <c r="C60" s="31"/>
@@ -3720,7 +3721,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" s="27" t="s">
         <v>63</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" s="27" t="s">
         <v>63</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" s="27" t="s">
         <v>63</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="27" t="s">
         <v>63</v>
       </c>
@@ -3865,7 +3866,7 @@
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
     </row>
-    <row r="65" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" s="27"/>
       <c r="B65"/>
       <c r="C65" s="31"/>
@@ -3881,7 +3882,7 @@
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
     </row>
-    <row r="66" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="27" t="s">
         <v>64</v>
       </c>
@@ -3918,7 +3919,7 @@
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
     </row>
-    <row r="67" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" s="27" t="s">
         <v>64</v>
       </c>
@@ -3951,7 +3952,7 @@
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
     </row>
-    <row r="68" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" s="27" t="s">
         <v>64</v>
       </c>
@@ -3984,7 +3985,7 @@
       <c r="N68" s="25"/>
       <c r="O68" s="25"/>
     </row>
-    <row r="69" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" s="27" t="s">
         <v>64</v>
       </c>
@@ -4017,7 +4018,7 @@
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
     </row>
-    <row r="70" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="A70" s="27"/>
       <c r="B70"/>
       <c r="C70" s="31"/>
@@ -4033,7 +4034,7 @@
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
     </row>
-    <row r="71" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" s="27" t="s">
         <v>65</v>
       </c>
@@ -4070,7 +4071,7 @@
       <c r="N71" s="25"/>
       <c r="O71" s="25"/>
     </row>
-    <row r="72" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" s="27" t="s">
         <v>65</v>
       </c>
@@ -4103,7 +4104,7 @@
       <c r="N72" s="25"/>
       <c r="O72" s="25"/>
     </row>
-    <row r="73" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" s="27" t="s">
         <v>65</v>
       </c>
@@ -4136,7 +4137,7 @@
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
     </row>
-    <row r="74" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" s="27" t="s">
         <v>65</v>
       </c>
@@ -4169,7 +4170,7 @@
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
     </row>
-    <row r="75" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" s="27"/>
       <c r="B75"/>
       <c r="C75" s="31"/>
@@ -4185,7 +4186,7 @@
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
     </row>
-    <row r="76" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" s="27" t="s">
         <v>66</v>
       </c>
@@ -4222,7 +4223,7 @@
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
     </row>
-    <row r="77" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" s="27" t="s">
         <v>66</v>
       </c>
@@ -4255,7 +4256,7 @@
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
     </row>
-    <row r="78" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="A78" s="27" t="s">
         <v>66</v>
       </c>
@@ -4288,7 +4289,7 @@
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
     </row>
-    <row r="79" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" s="27" t="s">
         <v>66</v>
       </c>
@@ -4321,7 +4322,7 @@
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
     </row>
-    <row r="80" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" s="27"/>
       <c r="B80"/>
       <c r="C80" s="31"/>
@@ -4337,7 +4338,7 @@
       <c r="N80" s="25"/>
       <c r="O80" s="25"/>
     </row>
-    <row r="81" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" s="27" t="s">
         <v>67</v>
       </c>
@@ -4374,7 +4375,7 @@
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
     </row>
-    <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" s="27" t="s">
         <v>67</v>
       </c>
@@ -4407,7 +4408,7 @@
       <c r="N82" s="25"/>
       <c r="O82" s="25"/>
     </row>
-    <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" s="27" t="s">
         <v>67</v>
       </c>
@@ -4440,7 +4441,7 @@
       <c r="N83" s="25"/>
       <c r="O83" s="25"/>
     </row>
-    <row r="84" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" s="27" t="s">
         <v>67</v>
       </c>
@@ -4473,7 +4474,7 @@
       <c r="N84" s="25"/>
       <c r="O84" s="25"/>
     </row>
-    <row r="85" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" s="27"/>
       <c r="B85"/>
       <c r="C85" s="31"/>
@@ -4489,7 +4490,7 @@
       <c r="N85" s="25"/>
       <c r="O85" s="25"/>
     </row>
-    <row r="86" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" s="27" t="s">
         <v>68</v>
       </c>
@@ -4526,7 +4527,7 @@
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
     </row>
-    <row r="87" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" s="27" t="s">
         <v>68</v>
       </c>
@@ -4559,7 +4560,7 @@
       <c r="N87" s="25"/>
       <c r="O87" s="25"/>
     </row>
-    <row r="88" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" s="27" t="s">
         <v>68</v>
       </c>
@@ -4592,7 +4593,7 @@
       <c r="N88" s="25"/>
       <c r="O88" s="25"/>
     </row>
-    <row r="89" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" s="27" t="s">
         <v>68</v>
       </c>
@@ -4625,7 +4626,7 @@
       <c r="N89" s="25"/>
       <c r="O89" s="25"/>
     </row>
-    <row r="90" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" s="27"/>
       <c r="B90"/>
       <c r="C90" s="31"/>
@@ -4641,7 +4642,7 @@
       <c r="N90" s="25"/>
       <c r="O90" s="25"/>
     </row>
-    <row r="91" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" s="27" t="s">
         <v>69</v>
       </c>
@@ -4678,7 +4679,7 @@
       <c r="N91" s="25"/>
       <c r="O91" s="25"/>
     </row>
-    <row r="92" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" s="27" t="s">
         <v>69</v>
       </c>
@@ -4711,7 +4712,7 @@
       <c r="N92" s="25"/>
       <c r="O92" s="25"/>
     </row>
-    <row r="93" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" s="27" t="s">
         <v>69</v>
       </c>
@@ -4744,7 +4745,7 @@
       <c r="N93" s="25"/>
       <c r="O93" s="25"/>
     </row>
-    <row r="94" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" s="27" t="s">
         <v>69</v>
       </c>
@@ -4777,7 +4778,7 @@
       <c r="N94" s="25"/>
       <c r="O94" s="25"/>
     </row>
-    <row r="95" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" s="27"/>
       <c r="B95"/>
       <c r="C95" s="31"/>
@@ -4793,7 +4794,7 @@
       <c r="N95" s="25"/>
       <c r="O95" s="25"/>
     </row>
-    <row r="96" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="27" t="s">
         <v>111</v>
       </c>
@@ -4822,7 +4823,7 @@
       <c r="N96" s="25"/>
       <c r="O96" s="25"/>
     </row>
-    <row r="97" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="27"/>
       <c r="B97"/>
       <c r="C97" s="31"/>
@@ -4838,7 +4839,7 @@
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
     </row>
-    <row r="98" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" s="27" t="s">
         <v>110</v>
       </c>
@@ -4867,10 +4868,10 @@
       <c r="N98" s="25"/>
       <c r="O98" s="25"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -4886,7 +4887,7 @@
       <c r="N100" s="25"/>
       <c r="O100" s="25"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
@@ -4903,7 +4904,7 @@
       <c r="N101" s="25"/>
       <c r="O101" s="25"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
@@ -4920,7 +4921,7 @@
       <c r="N102" s="25"/>
       <c r="O102" s="25"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>

--- a/deployment/Omaha_Cal_Info_GP03FLMA_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_GP03FLMA_00003.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42240" yWindow="4860" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="42240" yWindow="4860" windowWidth="25605" windowHeight="16065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -192,40 +197,6 @@
   </si>
   <si>
     <t>[2.84877E-03, 1.20979E-04, 2.43655E-06, 2.30030E+02, -3.23256E-01, -5.85685E+01, 4.544557E+00]</t>
-  </si>
-  <si>
-    <r>
-      <t>GP03FLMA-RI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02-01-ADCPSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
   </si>
   <si>
     <t>GP03FLMA-RIS01-05-FLORTD000</t>
@@ -415,6 +386,9 @@
   </si>
   <si>
     <t>GP03FLMA-RIM01-00-SIOENG000</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-ADCPSL003</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1370,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1701,32 +1675,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="4"/>
+    <col min="8" max="8" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="28">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1762,9 +1736,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1">
+    <row r="2" spans="1:14" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>49</v>
@@ -1785,10 +1759,10 @@
         <v>42549</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="J2" s="3">
         <v>4127</v>
@@ -1806,12 +1780,12 @@
         <v>-144.24616666666665</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="16" customFormat="1">
+    <row r="3" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="29"/>
       <c r="F3" s="30"/>
       <c r="G3" s="29"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
     </row>
@@ -1830,35 +1804,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A96" sqref="A96"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="9" customWidth="1"/>
-    <col min="10" max="13" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="9" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" ht="28">
+    <row r="1" spans="1:15" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
@@ -1867,7 +1841,7 @@
         <v>43</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>2</v>
@@ -1888,7 +1862,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="24"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1905,12 +1879,12 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>50</v>
@@ -1919,7 +1893,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="32">
         <v>1216</v>
@@ -1942,12 +1916,12 @@
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>50</v>
@@ -1956,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="32">
         <v>1216</v>
@@ -1977,12 +1951,12 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>50</v>
@@ -1991,7 +1965,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="32">
         <v>1216</v>
@@ -2010,12 +1984,12 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>50</v>
@@ -2024,7 +1998,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="32">
         <v>1216</v>
@@ -2043,12 +2017,12 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>50</v>
@@ -2057,7 +2031,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="32">
         <v>1216</v>
@@ -2076,12 +2050,12 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>50</v>
@@ -2090,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="32">
         <v>1216</v>
@@ -2109,12 +2083,12 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>50</v>
@@ -2123,7 +2097,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="32">
         <v>1216</v>
@@ -2144,12 +2118,12 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>50</v>
@@ -2158,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="32">
         <v>1216</v>
@@ -2179,12 +2153,12 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>50</v>
@@ -2193,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="32">
         <v>1216</v>
@@ -2214,12 +2188,12 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>50</v>
@@ -2228,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="32">
         <v>1216</v>
@@ -2249,7 +2223,7 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13"/>
       <c r="C13" s="31"/>
@@ -2265,12 +2239,12 @@
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>50</v>
@@ -2279,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>53</v>
@@ -2302,12 +2276,12 @@
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>50</v>
@@ -2316,7 +2290,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>53</v>
@@ -2335,12 +2309,12 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>50</v>
@@ -2349,7 +2323,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>53</v>
@@ -2368,12 +2342,12 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>50</v>
@@ -2382,7 +2356,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>53</v>
@@ -2401,12 +2375,12 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>50</v>
@@ -2415,7 +2389,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>53</v>
@@ -2434,12 +2408,12 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>50</v>
@@ -2448,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>53</v>
@@ -2467,12 +2441,12 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>50</v>
@@ -2481,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>53</v>
@@ -2502,7 +2476,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21"/>
       <c r="C21" s="31"/>
@@ -2518,12 +2492,12 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>50</v>
@@ -2532,7 +2506,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="32">
         <v>394</v>
@@ -2555,12 +2529,12 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>50</v>
@@ -2569,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="32">
         <v>394</v>
@@ -2590,12 +2564,12 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" ht="42">
+    <row r="24" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>50</v>
@@ -2604,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="32">
         <v>394</v>
@@ -2623,7 +2597,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25"/>
       <c r="C25" s="31"/>
@@ -2639,12 +2613,12 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>50</v>
@@ -2653,7 +2627,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" s="32">
         <v>21393</v>
@@ -2676,12 +2650,12 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>50</v>
@@ -2690,7 +2664,7 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" s="32">
         <v>21393</v>
@@ -2709,12 +2683,12 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>50</v>
@@ -2723,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="32">
         <v>21393</v>
@@ -2742,12 +2716,12 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>50</v>
@@ -2756,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29" s="32">
         <v>21393</v>
@@ -2775,12 +2749,12 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>50</v>
@@ -2789,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" s="32">
         <v>21393</v>
@@ -2810,12 +2784,12 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>50</v>
@@ -2824,7 +2798,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F31" s="32">
         <v>21393</v>
@@ -2843,12 +2817,12 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>50</v>
@@ -2857,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" s="32">
         <v>21393</v>
@@ -2876,12 +2850,12 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>50</v>
@@ -2890,7 +2864,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F33" s="32">
         <v>21393</v>
@@ -2909,12 +2883,12 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>50</v>
@@ -2923,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="32">
         <v>21393</v>
@@ -2942,7 +2916,7 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35"/>
       <c r="C35" s="31"/>
@@ -2958,12 +2932,12 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>50</v>
@@ -2972,10 +2946,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>5</v>
@@ -2995,12 +2969,12 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>50</v>
@@ -3009,10 +2983,10 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>6</v>
@@ -3028,12 +3002,12 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>50</v>
@@ -3042,10 +3016,10 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>7</v>
@@ -3061,12 +3035,12 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>50</v>
@@ -3075,10 +3049,10 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>29</v>
@@ -3094,7 +3068,7 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40"/>
       <c r="C40" s="31"/>
@@ -3110,12 +3084,12 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>50</v>
@@ -3124,10 +3098,10 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="32" t="s">
         <v>86</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>87</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>5</v>
@@ -3147,12 +3121,12 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>50</v>
@@ -3161,10 +3135,10 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="32" t="s">
         <v>86</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>87</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>6</v>
@@ -3180,12 +3154,12 @@
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>50</v>
@@ -3194,10 +3168,10 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="32" t="s">
         <v>86</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>87</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>7</v>
@@ -3213,12 +3187,12 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>50</v>
@@ -3227,10 +3201,10 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="32" t="s">
         <v>86</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>87</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>29</v>
@@ -3246,7 +3220,7 @@
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45"/>
       <c r="C45" s="31"/>
@@ -3262,12 +3236,12 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>50</v>
@@ -3276,10 +3250,10 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>5</v>
@@ -3299,12 +3273,12 @@
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="31" t="s">
         <v>50</v>
@@ -3313,10 +3287,10 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>6</v>
@@ -3332,12 +3306,12 @@
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="31" t="s">
         <v>50</v>
@@ -3346,10 +3320,10 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>7</v>
@@ -3365,12 +3339,12 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>50</v>
@@ -3379,10 +3353,10 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>29</v>
@@ -3398,7 +3372,7 @@
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50"/>
       <c r="C50" s="31"/>
@@ -3414,12 +3388,12 @@
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>50</v>
@@ -3428,10 +3402,10 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>5</v>
@@ -3451,12 +3425,12 @@
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="31" t="s">
         <v>50</v>
@@ -3465,10 +3439,10 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>6</v>
@@ -3484,12 +3458,12 @@
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="31" t="s">
         <v>50</v>
@@ -3498,10 +3472,10 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>7</v>
@@ -3517,12 +3491,12 @@
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>50</v>
@@ -3531,10 +3505,10 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>29</v>
@@ -3550,7 +3524,7 @@
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55"/>
       <c r="C55" s="31"/>
@@ -3566,12 +3540,12 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="31" t="s">
         <v>50</v>
@@ -3580,10 +3554,10 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>5</v>
@@ -3603,12 +3577,12 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>50</v>
@@ -3617,10 +3591,10 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>6</v>
@@ -3636,12 +3610,12 @@
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="31" t="s">
         <v>50</v>
@@ -3650,10 +3624,10 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>7</v>
@@ -3669,12 +3643,12 @@
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>50</v>
@@ -3683,10 +3657,10 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>29</v>
@@ -3702,7 +3676,7 @@
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60"/>
       <c r="C60" s="31"/>
@@ -3718,15 +3692,15 @@
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
       <c r="R60" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="31" t="s">
         <v>50</v>
@@ -3735,10 +3709,10 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>5</v>
@@ -3758,15 +3732,15 @@
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
       <c r="R61" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>50</v>
@@ -3775,10 +3749,10 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>6</v>
@@ -3794,15 +3768,15 @@
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
       <c r="R62" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>50</v>
@@ -3811,10 +3785,10 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>7</v>
@@ -3830,15 +3804,15 @@
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
       <c r="R63" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" s="31" t="s">
         <v>50</v>
@@ -3847,10 +3821,10 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>29</v>
@@ -3866,7 +3840,7 @@
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="27"/>
       <c r="B65"/>
       <c r="C65" s="31"/>
@@ -3882,12 +3856,12 @@
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" s="31" t="s">
         <v>50</v>
@@ -3896,10 +3870,10 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>5</v>
@@ -3919,12 +3893,12 @@
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" s="31" t="s">
         <v>50</v>
@@ -3933,10 +3907,10 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>6</v>
@@ -3952,12 +3926,12 @@
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="31" t="s">
         <v>50</v>
@@ -3966,10 +3940,10 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>7</v>
@@ -3985,12 +3959,12 @@
       <c r="N68" s="25"/>
       <c r="O68" s="25"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>50</v>
@@ -3999,10 +3973,10 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>29</v>
@@ -4018,7 +3992,7 @@
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
       <c r="B70"/>
       <c r="C70" s="31"/>
@@ -4034,12 +4008,12 @@
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" s="31" t="s">
         <v>50</v>
@@ -4048,10 +4022,10 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="F71" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>5</v>
@@ -4071,12 +4045,12 @@
       <c r="N71" s="25"/>
       <c r="O71" s="25"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" s="31" t="s">
         <v>50</v>
@@ -4085,10 +4059,10 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="F72" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>6</v>
@@ -4104,12 +4078,12 @@
       <c r="N72" s="25"/>
       <c r="O72" s="25"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="31" t="s">
         <v>50</v>
@@ -4118,10 +4092,10 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="F73" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>7</v>
@@ -4137,12 +4111,12 @@
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" s="31" t="s">
         <v>50</v>
@@ -4151,10 +4125,10 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="F74" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>29</v>
@@ -4170,7 +4144,7 @@
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="27"/>
       <c r="B75"/>
       <c r="C75" s="31"/>
@@ -4186,12 +4160,12 @@
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="31" t="s">
         <v>50</v>
@@ -4200,10 +4174,10 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F76" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>5</v>
@@ -4223,12 +4197,12 @@
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" s="31" t="s">
         <v>50</v>
@@ -4237,10 +4211,10 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F77" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>6</v>
@@ -4256,12 +4230,12 @@
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="31" t="s">
         <v>50</v>
@@ -4270,10 +4244,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>7</v>
@@ -4289,12 +4263,12 @@
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" s="31" t="s">
         <v>50</v>
@@ -4303,10 +4277,10 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>29</v>
@@ -4322,7 +4296,7 @@
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="27"/>
       <c r="B80"/>
       <c r="C80" s="31"/>
@@ -4338,12 +4312,12 @@
       <c r="N80" s="25"/>
       <c r="O80" s="25"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="31" t="s">
         <v>50</v>
@@ -4352,10 +4326,10 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F81" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>5</v>
@@ -4375,12 +4349,12 @@
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="31" t="s">
         <v>50</v>
@@ -4389,10 +4363,10 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>6</v>
@@ -4408,12 +4382,12 @@
       <c r="N82" s="25"/>
       <c r="O82" s="25"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="31" t="s">
         <v>50</v>
@@ -4422,10 +4396,10 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F83" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>7</v>
@@ -4441,12 +4415,12 @@
       <c r="N83" s="25"/>
       <c r="O83" s="25"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" s="31" t="s">
         <v>50</v>
@@ -4455,10 +4429,10 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F84" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>29</v>
@@ -4474,7 +4448,7 @@
       <c r="N84" s="25"/>
       <c r="O84" s="25"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="27"/>
       <c r="B85"/>
       <c r="C85" s="31"/>
@@ -4490,12 +4464,12 @@
       <c r="N85" s="25"/>
       <c r="O85" s="25"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" s="31" t="s">
         <v>50</v>
@@ -4504,10 +4478,10 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F86" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>5</v>
@@ -4527,12 +4501,12 @@
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C87" s="31" t="s">
         <v>50</v>
@@ -4541,10 +4515,10 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F87" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>6</v>
@@ -4560,12 +4534,12 @@
       <c r="N87" s="25"/>
       <c r="O87" s="25"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C88" s="31" t="s">
         <v>50</v>
@@ -4574,10 +4548,10 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F88" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>7</v>
@@ -4593,12 +4567,12 @@
       <c r="N88" s="25"/>
       <c r="O88" s="25"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C89" s="31" t="s">
         <v>50</v>
@@ -4607,10 +4581,10 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F89" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>29</v>
@@ -4626,7 +4600,7 @@
       <c r="N89" s="25"/>
       <c r="O89" s="25"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="27"/>
       <c r="B90"/>
       <c r="C90" s="31"/>
@@ -4642,12 +4616,12 @@
       <c r="N90" s="25"/>
       <c r="O90" s="25"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C91" s="31" t="s">
         <v>50</v>
@@ -4656,10 +4630,10 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F91" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>5</v>
@@ -4679,12 +4653,12 @@
       <c r="N91" s="25"/>
       <c r="O91" s="25"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C92" s="31" t="s">
         <v>50</v>
@@ -4693,10 +4667,10 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F92" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>6</v>
@@ -4712,12 +4686,12 @@
       <c r="N92" s="25"/>
       <c r="O92" s="25"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C93" s="31" t="s">
         <v>50</v>
@@ -4726,10 +4700,10 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F93" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>7</v>
@@ -4745,12 +4719,12 @@
       <c r="N93" s="25"/>
       <c r="O93" s="25"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C94" s="31" t="s">
         <v>50</v>
@@ -4759,10 +4733,10 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F94" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>29</v>
@@ -4778,7 +4752,7 @@
       <c r="N94" s="25"/>
       <c r="O94" s="25"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="27"/>
       <c r="B95"/>
       <c r="C95" s="31"/>
@@ -4794,12 +4768,12 @@
       <c r="N95" s="25"/>
       <c r="O95" s="25"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C96" s="31" t="s">
         <v>50</v>
@@ -4808,7 +4782,7 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F96" s="32">
         <v>12365</v>
@@ -4823,7 +4797,7 @@
       <c r="N96" s="25"/>
       <c r="O96" s="25"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="27"/>
       <c r="B97"/>
       <c r="C97" s="31"/>
@@ -4839,12 +4813,12 @@
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C98" s="31" t="s">
         <v>50</v>
@@ -4853,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F98" s="32">
         <v>12368</v>
@@ -4868,10 +4842,10 @@
       <c r="N98" s="25"/>
       <c r="O98" s="25"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -4887,7 +4861,7 @@
       <c r="N100" s="25"/>
       <c r="O100" s="25"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
@@ -4904,7 +4878,7 @@
       <c r="N101" s="25"/>
       <c r="O101" s="25"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
@@ -4921,7 +4895,7 @@
       <c r="N102" s="25"/>
       <c r="O102" s="25"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
